--- a/edp/edp_schema_main_v0.1.xlsx
+++ b/edp/edp_schema_main_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO_refactoring/COPO-production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0B6D5B-58CD-A145-A01C-7117515BF68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EF076F-1C0C-934F-B365-D9D2B6520CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39000" yWindow="7860" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="38940" yWindow="1940" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="248">
   <si>
     <t>component_name</t>
   </si>
@@ -1008,12 +1008,15 @@
   <si>
     <t>Sample:C_QuantMethod</t>
   </si>
+  <si>
+    <t>first_data_line_no</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1136,6 +1139,12 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1297,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1419,6 +1428,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1774,10 +1784,10 @@
   </sheetPr>
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A3" zoomScale="125" zoomScaleNormal="97" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="E18" sqref="E18"/>
+      <selection pane="topRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -2933,7 +2943,7 @@
       <c r="N23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="44" t="s">
@@ -14889,62 +14899,75 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>176</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
